--- a/Movies Raw Data.xlsx
+++ b/Movies Raw Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Documents\Data Analysis\Movies Sales Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DAE5DFB-D86F-4184-819E-9889530B3368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7ED7686-2905-4834-B464-895059C79DE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{24D39405-1A2E-4110-AFA3-BEC10B9E0557}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="46">
   <si>
     <t>MOVIE</t>
   </si>
@@ -117,18 +117,6 @@
     <t>Toy Story 3</t>
   </si>
   <si>
-    <t>Sum</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>Running Total</t>
-  </si>
-  <si>
-    <t>Count</t>
-  </si>
-  <si>
     <t>Jul-21</t>
   </si>
   <si>
@@ -175,6 +163,9 @@
   </si>
   <si>
     <t>Categories</t>
+  </si>
+  <si>
+    <t>This is a change</t>
   </si>
 </sst>
 </file>
@@ -183,7 +174,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -327,23 +318,23 @@
     <xf numFmtId="17" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -351,9 +342,6 @@
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="16">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -371,7 +359,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -408,7 +396,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -427,7 +415,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -446,7 +434,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -465,7 +453,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -484,7 +472,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -503,7 +491,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -522,7 +510,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -541,7 +529,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -560,7 +548,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -579,7 +567,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -598,7 +586,28 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -635,24 +644,6 @@
         <top/>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1245,40 +1236,40 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4C9DF40B-5C8C-401D-AB2E-521C368C05A4}" name="Table1" displayName="Table1" ref="A4:P20" totalsRowShown="0" headerRowDxfId="14" dataDxfId="15" dataCellStyle="Currency">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4C9DF40B-5C8C-401D-AB2E-521C368C05A4}" name="Table1" displayName="Table1" ref="A4:P20" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" dataCellStyle="Currency">
   <autoFilter ref="A4:P20" xr:uid="{4C9DF40B-5C8C-401D-AB2E-521C368C05A4}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:O20">
     <sortCondition descending="1" ref="K5:K20"/>
   </sortState>
   <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{F82645F0-A6A7-4243-9A44-B5FB87830F02}" name="MOVIE"/>
-    <tableColumn id="16" xr3:uid="{1A23E2B8-543B-42E9-8922-68637D1B3AE4}" name="Distributor" dataDxfId="0">
+    <tableColumn id="16" xr3:uid="{1A23E2B8-543B-42E9-8922-68637D1B3AE4}" name="Distributor" dataDxfId="13">
       <calculatedColumnFormula>VLOOKUP(Table1[[#This Row],[MOVIE]],Distributors!$A$2:$B$17,2,0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="15" xr3:uid="{E50C6C6E-1392-4B32-A36B-44681498F388}" name="Categories"/>
-    <tableColumn id="2" xr3:uid="{BBF30E02-3190-40F2-9A20-541F55A06296}" name="Jul-21" dataDxfId="13" dataCellStyle="Currency"/>
-    <tableColumn id="3" xr3:uid="{DEB62FBB-8942-4E67-BA21-8A6874630D53}" name="Aug-21" dataDxfId="12" dataCellStyle="Currency"/>
-    <tableColumn id="4" xr3:uid="{35180C50-3E65-4F7F-8C8D-5922FB7698B4}" name="Sep-21" dataDxfId="11" dataCellStyle="Currency"/>
-    <tableColumn id="5" xr3:uid="{95553172-6726-432C-B753-1A7935760457}" name="Oct-21" dataDxfId="10" dataCellStyle="Currency"/>
-    <tableColumn id="6" xr3:uid="{6B07CD13-FF40-4EC8-84B4-1536E81A9F91}" name="Nov-21" dataDxfId="9" dataCellStyle="Currency"/>
-    <tableColumn id="7" xr3:uid="{39DC1883-AB09-4E68-8A3C-18F1DDE3B5BE}" name="Dec-21" dataDxfId="8" dataCellStyle="Currency"/>
-    <tableColumn id="8" xr3:uid="{894C3124-4856-4F0A-A545-6380FD709BC9}" name="Jan-22" dataDxfId="7" dataCellStyle="Currency"/>
-    <tableColumn id="9" xr3:uid="{7231E30B-BFE0-4309-A4B4-60BDC40E90C4}" name="Total Revenue" dataDxfId="6" dataCellStyle="Currency">
+    <tableColumn id="2" xr3:uid="{BBF30E02-3190-40F2-9A20-541F55A06296}" name="Jul-21" dataDxfId="12" dataCellStyle="Currency"/>
+    <tableColumn id="3" xr3:uid="{DEB62FBB-8942-4E67-BA21-8A6874630D53}" name="Aug-21" dataDxfId="11" dataCellStyle="Currency"/>
+    <tableColumn id="4" xr3:uid="{35180C50-3E65-4F7F-8C8D-5922FB7698B4}" name="Sep-21" dataDxfId="10" dataCellStyle="Currency"/>
+    <tableColumn id="5" xr3:uid="{95553172-6726-432C-B753-1A7935760457}" name="Oct-21" dataDxfId="9" dataCellStyle="Currency"/>
+    <tableColumn id="6" xr3:uid="{6B07CD13-FF40-4EC8-84B4-1536E81A9F91}" name="Nov-21" dataDxfId="8" dataCellStyle="Currency"/>
+    <tableColumn id="7" xr3:uid="{39DC1883-AB09-4E68-8A3C-18F1DDE3B5BE}" name="Dec-21" dataDxfId="7" dataCellStyle="Currency"/>
+    <tableColumn id="8" xr3:uid="{894C3124-4856-4F0A-A545-6380FD709BC9}" name="Jan-22" dataDxfId="6" dataCellStyle="Currency"/>
+    <tableColumn id="9" xr3:uid="{7231E30B-BFE0-4309-A4B4-60BDC40E90C4}" name="Total Revenue" dataDxfId="5" dataCellStyle="Currency">
       <calculatedColumnFormula>SUM(Table1[[#This Row],[Jul-21]:[Jan-22]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{8EF5273B-ABA6-4AA0-B59C-B5D0D1791C36}" name="Average Revenue" dataDxfId="5" dataCellStyle="Currency">
+    <tableColumn id="10" xr3:uid="{8EF5273B-ABA6-4AA0-B59C-B5D0D1791C36}" name="Average Revenue" dataDxfId="4" dataCellStyle="Currency">
       <calculatedColumnFormula>AVERAGE(Table1[[#This Row],[Jul-21]:[Jan-22]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{9EDCDB67-47FD-4C5F-BD60-B0C8884630D7}" name="Min. Revenue" dataDxfId="4" dataCellStyle="Currency">
+    <tableColumn id="11" xr3:uid="{9EDCDB67-47FD-4C5F-BD60-B0C8884630D7}" name="Min. Revenue" dataDxfId="3" dataCellStyle="Currency">
       <calculatedColumnFormula>MIN(Table1[[#This Row],[Jul-21]:[Jan-22]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{86589FCB-F725-4015-B09F-7EBE8775CAD9}" name="Max. Revenue" dataDxfId="3" dataCellStyle="Currency">
+    <tableColumn id="12" xr3:uid="{86589FCB-F725-4015-B09F-7EBE8775CAD9}" name="Max. Revenue" dataDxfId="2" dataCellStyle="Currency">
       <calculatedColumnFormula>MAX(Table1[[#This Row],[Jul-21]:[Jan-22]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{F4FDAEF3-20FA-4477-8179-E6BD8DCE4E8F}" name="MoM Growth" dataDxfId="2" dataCellStyle="Percent">
+    <tableColumn id="13" xr3:uid="{F4FDAEF3-20FA-4477-8179-E6BD8DCE4E8F}" name="MoM Growth" dataDxfId="1" dataCellStyle="Percent">
       <calculatedColumnFormula>(Table1[[#This Row],[Jan-22]]/Table1[[#This Row],[Dec-21]])-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{57FCC17A-C8D8-4C38-A639-58603FCEAE43}" name="Revenue Status" dataDxfId="1" dataCellStyle="Currency">
+    <tableColumn id="14" xr3:uid="{57FCC17A-C8D8-4C38-A639-58603FCEAE43}" name="Revenue Status" dataDxfId="0" dataCellStyle="Currency">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Total Revenue]]&gt;$I$25,"Above Revenue","Below Average")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1586,7 +1577,7 @@
   <dimension ref="A1:P26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -1604,18 +1595,18 @@
   <sheetData>
     <row r="1" spans="1:16" s="6" customFormat="1"/>
     <row r="2" spans="1:16" s="6" customFormat="1" ht="28.8">
-      <c r="A2" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
+      <c r="A2" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:16" s="6" customFormat="1"/>
     <row r="4" spans="1:16" ht="15.6">
@@ -1626,46 +1617,46 @@
         <v>1</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="I4" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="J4" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" s="8" t="s">
+      <c r="K4" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="L4" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="M4" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="N4" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="O4" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="P4" s="11" t="s">
         <v>42</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="N4" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="O4" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="P4" s="12" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1676,48 +1667,48 @@
         <f>VLOOKUP(Table1[[#This Row],[MOVIE]],Distributors!$A$2:$B$17,2,0)</f>
         <v>Paramount Pictures</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="9">
         <v>908851</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="9">
         <v>953741</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="9">
         <v>924366</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="9">
         <v>907576</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="9">
         <v>945771</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="9">
         <v>1928656</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="9">
         <v>1023031</v>
       </c>
-      <c r="K5" s="10">
+      <c r="K5" s="9">
         <f>SUM(Table1[[#This Row],[Jul-21]:[Jan-22]])</f>
         <v>7591992</v>
       </c>
-      <c r="L5" s="10">
+      <c r="L5" s="9">
         <f>AVERAGE(Table1[[#This Row],[Jul-21]:[Jan-22]])</f>
         <v>1084570.2857142857</v>
       </c>
-      <c r="M5" s="10">
+      <c r="M5" s="9">
         <f>MIN(Table1[[#This Row],[Jul-21]:[Jan-22]])</f>
         <v>907576</v>
       </c>
-      <c r="N5" s="10">
+      <c r="N5" s="9">
         <f>MAX(Table1[[#This Row],[Jul-21]:[Jan-22]])</f>
         <v>1928656</v>
       </c>
-      <c r="O5" s="13">
+      <c r="O5" s="12">
         <f>(Table1[[#This Row],[Jan-22]]/Table1[[#This Row],[Dec-21]])-1</f>
         <v>-0.46956274213753002</v>
       </c>
-      <c r="P5" s="10" t="str">
+      <c r="P5" s="9" t="str">
         <f>IF(Table1[[#This Row],[Total Revenue]]&gt;$I$25,"Above Revenue","Below Average")</f>
         <v>Above Revenue</v>
       </c>
@@ -1730,48 +1721,48 @@
         <f>VLOOKUP(Table1[[#This Row],[MOVIE]],Distributors!$A$2:$B$17,2,0)</f>
         <v>Walt Disney</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="9">
         <v>544951</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="9">
         <v>576636</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="9">
         <v>564851</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="9">
         <v>516416</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="9">
         <v>558496</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="9">
         <v>1139066</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J6" s="9">
         <v>606996</v>
       </c>
-      <c r="K6" s="10">
+      <c r="K6" s="9">
         <f>SUM(Table1[[#This Row],[Jul-21]:[Jan-22]])</f>
         <v>4507412</v>
       </c>
-      <c r="L6" s="10">
+      <c r="L6" s="9">
         <f>AVERAGE(Table1[[#This Row],[Jul-21]:[Jan-22]])</f>
         <v>643916</v>
       </c>
-      <c r="M6" s="10">
+      <c r="M6" s="9">
         <f>MIN(Table1[[#This Row],[Jul-21]:[Jan-22]])</f>
         <v>516416</v>
       </c>
-      <c r="N6" s="10">
+      <c r="N6" s="9">
         <f>MAX(Table1[[#This Row],[Jul-21]:[Jan-22]])</f>
         <v>1139066</v>
       </c>
-      <c r="O6" s="13">
+      <c r="O6" s="12">
         <f>(Table1[[#This Row],[Jan-22]]/Table1[[#This Row],[Dec-21]])-1</f>
         <v>-0.46711077321243899</v>
       </c>
-      <c r="P6" s="10" t="str">
+      <c r="P6" s="9" t="str">
         <f>IF(Table1[[#This Row],[Total Revenue]]&gt;$I$25,"Above Revenue","Below Average")</f>
         <v>Above Revenue</v>
       </c>
@@ -1784,48 +1775,48 @@
         <f>VLOOKUP(Table1[[#This Row],[MOVIE]],Distributors!$A$2:$B$17,2,0)</f>
         <v>Warner Bros.</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="9">
         <v>259311</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="9">
         <v>263611</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="9">
         <v>263801</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="9">
         <v>279256</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="9">
         <v>283426</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="9">
         <v>590476</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J7" s="9">
         <v>300861</v>
       </c>
-      <c r="K7" s="10">
+      <c r="K7" s="9">
         <f>SUM(Table1[[#This Row],[Jul-21]:[Jan-22]])</f>
         <v>2240742</v>
       </c>
-      <c r="L7" s="10">
+      <c r="L7" s="9">
         <f>AVERAGE(Table1[[#This Row],[Jul-21]:[Jan-22]])</f>
         <v>320106</v>
       </c>
-      <c r="M7" s="10">
+      <c r="M7" s="9">
         <f>MIN(Table1[[#This Row],[Jul-21]:[Jan-22]])</f>
         <v>259311</v>
       </c>
-      <c r="N7" s="10">
+      <c r="N7" s="9">
         <f>MAX(Table1[[#This Row],[Jul-21]:[Jan-22]])</f>
         <v>590476</v>
       </c>
-      <c r="O7" s="13">
+      <c r="O7" s="12">
         <f>(Table1[[#This Row],[Jan-22]]/Table1[[#This Row],[Dec-21]])-1</f>
         <v>-0.49047717434747562</v>
       </c>
-      <c r="P7" s="10" t="str">
+      <c r="P7" s="9" t="str">
         <f>IF(Table1[[#This Row],[Total Revenue]]&gt;$I$25,"Above Revenue","Below Average")</f>
         <v>Above Revenue</v>
       </c>
@@ -1838,48 +1829,48 @@
         <f>VLOOKUP(Table1[[#This Row],[MOVIE]],Distributors!$A$2:$B$17,2,0)</f>
         <v>Paramount Pictures</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="9">
         <v>81641</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="9">
         <v>86581</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="9">
         <v>78091</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="9">
         <v>92076</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="9">
         <v>94381</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="9">
         <v>187256</v>
       </c>
-      <c r="J8" s="10">
+      <c r="J8" s="9">
         <v>111241</v>
       </c>
-      <c r="K8" s="10">
+      <c r="K8" s="9">
         <f>SUM(Table1[[#This Row],[Jul-21]:[Jan-22]])</f>
         <v>731267</v>
       </c>
-      <c r="L8" s="10">
+      <c r="L8" s="9">
         <f>AVERAGE(Table1[[#This Row],[Jul-21]:[Jan-22]])</f>
         <v>104466.71428571429</v>
       </c>
-      <c r="M8" s="10">
+      <c r="M8" s="9">
         <f>MIN(Table1[[#This Row],[Jul-21]:[Jan-22]])</f>
         <v>78091</v>
       </c>
-      <c r="N8" s="10">
+      <c r="N8" s="9">
         <f>MAX(Table1[[#This Row],[Jul-21]:[Jan-22]])</f>
         <v>187256</v>
       </c>
-      <c r="O8" s="13">
+      <c r="O8" s="12">
         <f>(Table1[[#This Row],[Jan-22]]/Table1[[#This Row],[Dec-21]])-1</f>
         <v>-0.40594159866706536</v>
       </c>
-      <c r="P8" s="10" t="str">
+      <c r="P8" s="9" t="str">
         <f>IF(Table1[[#This Row],[Total Revenue]]&gt;$I$25,"Above Revenue","Below Average")</f>
         <v>Below Average</v>
       </c>
@@ -1892,48 +1883,48 @@
         <f>VLOOKUP(Table1[[#This Row],[MOVIE]],Distributors!$A$2:$B$17,2,0)</f>
         <v>20th Century Fox</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="9">
         <v>14506</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="9">
         <v>18876</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="9">
         <v>8641</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="9">
         <v>5236</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="9">
         <v>5066</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="9">
         <v>2286</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="9">
         <v>1316</v>
       </c>
-      <c r="K9" s="10">
+      <c r="K9" s="9">
         <f>SUM(Table1[[#This Row],[Jul-21]:[Jan-22]])</f>
         <v>55927</v>
       </c>
-      <c r="L9" s="10">
+      <c r="L9" s="9">
         <f>AVERAGE(Table1[[#This Row],[Jul-21]:[Jan-22]])</f>
         <v>7989.5714285714284</v>
       </c>
-      <c r="M9" s="10">
+      <c r="M9" s="9">
         <f>MIN(Table1[[#This Row],[Jul-21]:[Jan-22]])</f>
         <v>1316</v>
       </c>
-      <c r="N9" s="10">
+      <c r="N9" s="9">
         <f>MAX(Table1[[#This Row],[Jul-21]:[Jan-22]])</f>
         <v>18876</v>
       </c>
-      <c r="O9" s="13">
+      <c r="O9" s="12">
         <f>(Table1[[#This Row],[Jan-22]]/Table1[[#This Row],[Dec-21]])-1</f>
         <v>-0.42432195975503062</v>
       </c>
-      <c r="P9" s="10" t="str">
+      <c r="P9" s="9" t="str">
         <f>IF(Table1[[#This Row],[Total Revenue]]&gt;$I$25,"Above Revenue","Below Average")</f>
         <v>Below Average</v>
       </c>
@@ -1946,48 +1937,48 @@
         <f>VLOOKUP(Table1[[#This Row],[MOVIE]],Distributors!$A$2:$B$17,2,0)</f>
         <v>Walt Disney</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="9">
         <v>5746</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="9">
         <v>5816</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="9">
         <v>5836</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="9">
         <v>5671</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="9">
         <v>5841</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="9">
         <v>10066</v>
       </c>
-      <c r="J10" s="10">
+      <c r="J10" s="9">
         <v>5821</v>
       </c>
-      <c r="K10" s="10">
+      <c r="K10" s="9">
         <f>SUM(Table1[[#This Row],[Jul-21]:[Jan-22]])</f>
         <v>44797</v>
       </c>
-      <c r="L10" s="10">
+      <c r="L10" s="9">
         <f>AVERAGE(Table1[[#This Row],[Jul-21]:[Jan-22]])</f>
         <v>6399.5714285714284</v>
       </c>
-      <c r="M10" s="10">
+      <c r="M10" s="9">
         <f>MIN(Table1[[#This Row],[Jul-21]:[Jan-22]])</f>
         <v>5671</v>
       </c>
-      <c r="N10" s="10">
+      <c r="N10" s="9">
         <f>MAX(Table1[[#This Row],[Jul-21]:[Jan-22]])</f>
         <v>10066</v>
       </c>
-      <c r="O10" s="13">
+      <c r="O10" s="12">
         <f>(Table1[[#This Row],[Jan-22]]/Table1[[#This Row],[Dec-21]])-1</f>
         <v>-0.42171666997814428</v>
       </c>
-      <c r="P10" s="10" t="str">
+      <c r="P10" s="9" t="str">
         <f>IF(Table1[[#This Row],[Total Revenue]]&gt;$I$25,"Above Revenue","Below Average")</f>
         <v>Below Average</v>
       </c>
@@ -2000,48 +1991,48 @@
         <f>VLOOKUP(Table1[[#This Row],[MOVIE]],Distributors!$A$2:$B$17,2,0)</f>
         <v>Warner Bros.</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="9">
         <v>7586</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="9">
         <v>7081</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="9">
         <v>8006</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="9">
         <v>12296</v>
       </c>
-      <c r="H11" s="10">
-        <v>1246</v>
-      </c>
-      <c r="I11" s="10">
-        <v>1246</v>
-      </c>
-      <c r="J11" s="10">
-        <v>1246</v>
-      </c>
-      <c r="K11" s="10">
+      <c r="H11" s="9">
+        <v>1246</v>
+      </c>
+      <c r="I11" s="9">
+        <v>1246</v>
+      </c>
+      <c r="J11" s="9">
+        <v>1246</v>
+      </c>
+      <c r="K11" s="9">
         <f>SUM(Table1[[#This Row],[Jul-21]:[Jan-22]])</f>
         <v>38707</v>
       </c>
-      <c r="L11" s="10">
+      <c r="L11" s="9">
         <f>AVERAGE(Table1[[#This Row],[Jul-21]:[Jan-22]])</f>
         <v>5529.5714285714284</v>
       </c>
-      <c r="M11" s="10">
+      <c r="M11" s="9">
         <f>MIN(Table1[[#This Row],[Jul-21]:[Jan-22]])</f>
         <v>1246</v>
       </c>
-      <c r="N11" s="10">
+      <c r="N11" s="9">
         <f>MAX(Table1[[#This Row],[Jul-21]:[Jan-22]])</f>
         <v>12296</v>
       </c>
-      <c r="O11" s="13">
+      <c r="O11" s="12">
         <f>(Table1[[#This Row],[Jan-22]]/Table1[[#This Row],[Dec-21]])-1</f>
         <v>0</v>
       </c>
-      <c r="P11" s="10" t="str">
+      <c r="P11" s="9" t="str">
         <f>IF(Table1[[#This Row],[Total Revenue]]&gt;$I$25,"Above Revenue","Below Average")</f>
         <v>Below Average</v>
       </c>
@@ -2054,48 +2045,48 @@
         <f>VLOOKUP(Table1[[#This Row],[MOVIE]],Distributors!$A$2:$B$17,2,0)</f>
         <v>Sony Pictures</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="9">
         <v>2251</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="9">
         <v>2286</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="9">
         <v>2286</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="9">
         <v>3756</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="9">
         <v>4451</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I12" s="9">
         <v>4956</v>
       </c>
-      <c r="J12" s="10">
+      <c r="J12" s="9">
         <v>2671</v>
       </c>
-      <c r="K12" s="10">
+      <c r="K12" s="9">
         <f>SUM(Table1[[#This Row],[Jul-21]:[Jan-22]])</f>
         <v>22657</v>
       </c>
-      <c r="L12" s="10">
+      <c r="L12" s="9">
         <f>AVERAGE(Table1[[#This Row],[Jul-21]:[Jan-22]])</f>
         <v>3236.7142857142858</v>
       </c>
-      <c r="M12" s="10">
+      <c r="M12" s="9">
         <f>MIN(Table1[[#This Row],[Jul-21]:[Jan-22]])</f>
         <v>2251</v>
       </c>
-      <c r="N12" s="10">
+      <c r="N12" s="9">
         <f>MAX(Table1[[#This Row],[Jul-21]:[Jan-22]])</f>
         <v>4956</v>
       </c>
-      <c r="O12" s="13">
+      <c r="O12" s="12">
         <f>(Table1[[#This Row],[Jan-22]]/Table1[[#This Row],[Dec-21]])-1</f>
         <v>-0.46105730427764324</v>
       </c>
-      <c r="P12" s="10" t="str">
+      <c r="P12" s="9" t="str">
         <f>IF(Table1[[#This Row],[Total Revenue]]&gt;$I$25,"Above Revenue","Below Average")</f>
         <v>Below Average</v>
       </c>
@@ -2108,48 +2099,48 @@
         <f>VLOOKUP(Table1[[#This Row],[MOVIE]],Distributors!$A$2:$B$17,2,0)</f>
         <v>20th Century Fox</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="9">
         <v>1506</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="9">
         <v>1501</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="9">
         <v>1501</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="9">
         <v>1516</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13" s="9">
         <v>1501</v>
       </c>
-      <c r="I13" s="10">
+      <c r="I13" s="9">
         <v>1746</v>
       </c>
-      <c r="J13" s="10">
+      <c r="J13" s="9">
         <v>1496</v>
       </c>
-      <c r="K13" s="10">
+      <c r="K13" s="9">
         <f>SUM(Table1[[#This Row],[Jul-21]:[Jan-22]])</f>
         <v>10767</v>
       </c>
-      <c r="L13" s="10">
+      <c r="L13" s="9">
         <f>AVERAGE(Table1[[#This Row],[Jul-21]:[Jan-22]])</f>
         <v>1538.1428571428571</v>
       </c>
-      <c r="M13" s="10">
+      <c r="M13" s="9">
         <f>MIN(Table1[[#This Row],[Jul-21]:[Jan-22]])</f>
         <v>1496</v>
       </c>
-      <c r="N13" s="10">
+      <c r="N13" s="9">
         <f>MAX(Table1[[#This Row],[Jul-21]:[Jan-22]])</f>
         <v>1746</v>
       </c>
-      <c r="O13" s="13">
+      <c r="O13" s="12">
         <f>(Table1[[#This Row],[Jan-22]]/Table1[[#This Row],[Dec-21]])-1</f>
         <v>-0.14318442153493705</v>
       </c>
-      <c r="P13" s="10" t="str">
+      <c r="P13" s="9" t="str">
         <f>IF(Table1[[#This Row],[Total Revenue]]&gt;$I$25,"Above Revenue","Below Average")</f>
         <v>Below Average</v>
       </c>
@@ -2162,48 +2153,48 @@
         <f>VLOOKUP(Table1[[#This Row],[MOVIE]],Distributors!$A$2:$B$17,2,0)</f>
         <v>Universal</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="9">
         <v>1296</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="9">
         <v>1296</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="9">
         <v>1296</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="9">
         <v>1291</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="9">
         <v>1296</v>
       </c>
-      <c r="I14" s="10">
+      <c r="I14" s="9">
         <v>1346</v>
       </c>
-      <c r="J14" s="10">
+      <c r="J14" s="9">
         <v>1296</v>
       </c>
-      <c r="K14" s="10">
+      <c r="K14" s="9">
         <f>SUM(Table1[[#This Row],[Jul-21]:[Jan-22]])</f>
         <v>9117</v>
       </c>
-      <c r="L14" s="10">
+      <c r="L14" s="9">
         <f>AVERAGE(Table1[[#This Row],[Jul-21]:[Jan-22]])</f>
         <v>1302.4285714285713</v>
       </c>
-      <c r="M14" s="10">
+      <c r="M14" s="9">
         <f>MIN(Table1[[#This Row],[Jul-21]:[Jan-22]])</f>
         <v>1291</v>
       </c>
-      <c r="N14" s="10">
+      <c r="N14" s="9">
         <f>MAX(Table1[[#This Row],[Jul-21]:[Jan-22]])</f>
         <v>1346</v>
       </c>
-      <c r="O14" s="13">
+      <c r="O14" s="12">
         <f>(Table1[[#This Row],[Jan-22]]/Table1[[#This Row],[Dec-21]])-1</f>
         <v>-3.7147102526002951E-2</v>
       </c>
-      <c r="P14" s="10" t="str">
+      <c r="P14" s="9" t="str">
         <f>IF(Table1[[#This Row],[Total Revenue]]&gt;$I$25,"Above Revenue","Below Average")</f>
         <v>Below Average</v>
       </c>
@@ -2216,48 +2207,48 @@
         <f>VLOOKUP(Table1[[#This Row],[MOVIE]],Distributors!$A$2:$B$17,2,0)</f>
         <v>Sony Pictures</v>
       </c>
-      <c r="D15" s="10">
-        <v>1246</v>
-      </c>
-      <c r="E15" s="10">
-        <v>1246</v>
-      </c>
-      <c r="F15" s="10">
-        <v>1246</v>
-      </c>
-      <c r="G15" s="10">
+      <c r="D15" s="9">
+        <v>1246</v>
+      </c>
+      <c r="E15" s="9">
+        <v>1246</v>
+      </c>
+      <c r="F15" s="9">
+        <v>1246</v>
+      </c>
+      <c r="G15" s="9">
         <v>1251</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H15" s="9">
         <v>1256</v>
       </c>
-      <c r="I15" s="10">
+      <c r="I15" s="9">
         <v>1396</v>
       </c>
-      <c r="J15" s="10">
+      <c r="J15" s="9">
         <v>1256</v>
       </c>
-      <c r="K15" s="10">
+      <c r="K15" s="9">
         <f>SUM(Table1[[#This Row],[Jul-21]:[Jan-22]])</f>
         <v>8897</v>
       </c>
-      <c r="L15" s="10">
+      <c r="L15" s="9">
         <f>AVERAGE(Table1[[#This Row],[Jul-21]:[Jan-22]])</f>
         <v>1271</v>
       </c>
-      <c r="M15" s="10">
+      <c r="M15" s="9">
         <f>MIN(Table1[[#This Row],[Jul-21]:[Jan-22]])</f>
         <v>1246</v>
       </c>
-      <c r="N15" s="10">
+      <c r="N15" s="9">
         <f>MAX(Table1[[#This Row],[Jul-21]:[Jan-22]])</f>
         <v>1396</v>
       </c>
-      <c r="O15" s="13">
+      <c r="O15" s="12">
         <f>(Table1[[#This Row],[Jan-22]]/Table1[[#This Row],[Dec-21]])-1</f>
         <v>-0.10028653295128942</v>
       </c>
-      <c r="P15" s="10" t="str">
+      <c r="P15" s="9" t="str">
         <f>IF(Table1[[#This Row],[Total Revenue]]&gt;$I$25,"Above Revenue","Below Average")</f>
         <v>Below Average</v>
       </c>
@@ -2270,48 +2261,48 @@
         <f>VLOOKUP(Table1[[#This Row],[MOVIE]],Distributors!$A$2:$B$17,2,0)</f>
         <v>Dreamworks SKG</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="9">
         <v>1271</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="9">
         <v>1271</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="9">
         <v>1271</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16" s="9">
         <v>1271</v>
       </c>
-      <c r="H16" s="10">
+      <c r="H16" s="9">
         <v>1271</v>
       </c>
-      <c r="I16" s="10">
+      <c r="I16" s="9">
         <v>1276</v>
       </c>
-      <c r="J16" s="10">
-        <v>1246</v>
-      </c>
-      <c r="K16" s="10">
+      <c r="J16" s="9">
+        <v>1246</v>
+      </c>
+      <c r="K16" s="9">
         <f>SUM(Table1[[#This Row],[Jul-21]:[Jan-22]])</f>
         <v>8877</v>
       </c>
-      <c r="L16" s="10">
+      <c r="L16" s="9">
         <f>AVERAGE(Table1[[#This Row],[Jul-21]:[Jan-22]])</f>
         <v>1268.1428571428571</v>
       </c>
-      <c r="M16" s="10">
+      <c r="M16" s="9">
         <f>MIN(Table1[[#This Row],[Jul-21]:[Jan-22]])</f>
         <v>1246</v>
       </c>
-      <c r="N16" s="10">
+      <c r="N16" s="9">
         <f>MAX(Table1[[#This Row],[Jul-21]:[Jan-22]])</f>
         <v>1276</v>
       </c>
-      <c r="O16" s="13">
+      <c r="O16" s="12">
         <f>(Table1[[#This Row],[Jan-22]]/Table1[[#This Row],[Dec-21]])-1</f>
         <v>-2.3510971786833812E-2</v>
       </c>
-      <c r="P16" s="10" t="str">
+      <c r="P16" s="9" t="str">
         <f>IF(Table1[[#This Row],[Total Revenue]]&gt;$I$25,"Above Revenue","Below Average")</f>
         <v>Below Average</v>
       </c>
@@ -2324,48 +2315,48 @@
         <f>VLOOKUP(Table1[[#This Row],[MOVIE]],Distributors!$A$2:$B$17,2,0)</f>
         <v>Warner Bros.</v>
       </c>
-      <c r="D17" s="10">
-        <v>1246</v>
-      </c>
-      <c r="E17" s="10">
-        <v>1246</v>
-      </c>
-      <c r="F17" s="10">
-        <v>1246</v>
-      </c>
-      <c r="G17" s="10">
-        <v>1246</v>
-      </c>
-      <c r="H17" s="10">
-        <v>1246</v>
-      </c>
-      <c r="I17" s="10">
-        <v>1246</v>
-      </c>
-      <c r="J17" s="10">
+      <c r="D17" s="9">
+        <v>1246</v>
+      </c>
+      <c r="E17" s="9">
+        <v>1246</v>
+      </c>
+      <c r="F17" s="9">
+        <v>1246</v>
+      </c>
+      <c r="G17" s="9">
+        <v>1246</v>
+      </c>
+      <c r="H17" s="9">
+        <v>1246</v>
+      </c>
+      <c r="I17" s="9">
+        <v>1246</v>
+      </c>
+      <c r="J17" s="9">
         <v>1291</v>
       </c>
-      <c r="K17" s="10">
+      <c r="K17" s="9">
         <f>SUM(Table1[[#This Row],[Jul-21]:[Jan-22]])</f>
         <v>8767</v>
       </c>
-      <c r="L17" s="10">
+      <c r="L17" s="9">
         <f>AVERAGE(Table1[[#This Row],[Jul-21]:[Jan-22]])</f>
         <v>1252.4285714285713</v>
       </c>
-      <c r="M17" s="10">
+      <c r="M17" s="9">
         <f>MIN(Table1[[#This Row],[Jul-21]:[Jan-22]])</f>
         <v>1246</v>
       </c>
-      <c r="N17" s="10">
+      <c r="N17" s="9">
         <f>MAX(Table1[[#This Row],[Jul-21]:[Jan-22]])</f>
         <v>1291</v>
       </c>
-      <c r="O17" s="13">
+      <c r="O17" s="12">
         <f>(Table1[[#This Row],[Jan-22]]/Table1[[#This Row],[Dec-21]])-1</f>
         <v>3.6115569823435001E-2</v>
       </c>
-      <c r="P17" s="10" t="str">
+      <c r="P17" s="9" t="str">
         <f>IF(Table1[[#This Row],[Total Revenue]]&gt;$I$25,"Above Revenue","Below Average")</f>
         <v>Below Average</v>
       </c>
@@ -2378,48 +2369,48 @@
         <f>VLOOKUP(Table1[[#This Row],[MOVIE]],Distributors!$A$2:$B$17,2,0)</f>
         <v>Sony Pictures</v>
       </c>
-      <c r="D18" s="10">
-        <v>1246</v>
-      </c>
-      <c r="E18" s="10">
-        <v>1246</v>
-      </c>
-      <c r="F18" s="10">
-        <v>1246</v>
-      </c>
-      <c r="G18" s="10">
-        <v>1246</v>
-      </c>
-      <c r="H18" s="10">
-        <v>1246</v>
-      </c>
-      <c r="I18" s="10">
-        <v>1246</v>
-      </c>
-      <c r="J18" s="10">
-        <v>1246</v>
-      </c>
-      <c r="K18" s="10">
+      <c r="D18" s="9">
+        <v>1246</v>
+      </c>
+      <c r="E18" s="9">
+        <v>1246</v>
+      </c>
+      <c r="F18" s="9">
+        <v>1246</v>
+      </c>
+      <c r="G18" s="9">
+        <v>1246</v>
+      </c>
+      <c r="H18" s="9">
+        <v>1246</v>
+      </c>
+      <c r="I18" s="9">
+        <v>1246</v>
+      </c>
+      <c r="J18" s="9">
+        <v>1246</v>
+      </c>
+      <c r="K18" s="9">
         <f>SUM(Table1[[#This Row],[Jul-21]:[Jan-22]])</f>
         <v>8722</v>
       </c>
-      <c r="L18" s="10">
+      <c r="L18" s="9">
         <f>AVERAGE(Table1[[#This Row],[Jul-21]:[Jan-22]])</f>
         <v>1246</v>
       </c>
-      <c r="M18" s="10">
+      <c r="M18" s="9">
         <f>MIN(Table1[[#This Row],[Jul-21]:[Jan-22]])</f>
         <v>1246</v>
       </c>
-      <c r="N18" s="10">
+      <c r="N18" s="9">
         <f>MAX(Table1[[#This Row],[Jul-21]:[Jan-22]])</f>
         <v>1246</v>
       </c>
-      <c r="O18" s="13">
+      <c r="O18" s="12">
         <f>(Table1[[#This Row],[Jan-22]]/Table1[[#This Row],[Dec-21]])-1</f>
         <v>0</v>
       </c>
-      <c r="P18" s="10" t="str">
+      <c r="P18" s="9" t="str">
         <f>IF(Table1[[#This Row],[Total Revenue]]&gt;$I$25,"Above Revenue","Below Average")</f>
         <v>Below Average</v>
       </c>
@@ -2432,48 +2423,48 @@
         <f>VLOOKUP(Table1[[#This Row],[MOVIE]],Distributors!$A$2:$B$17,2,0)</f>
         <v>20th Century Fox</v>
       </c>
-      <c r="D19" s="10">
-        <v>1246</v>
-      </c>
-      <c r="E19" s="10">
-        <v>1246</v>
-      </c>
-      <c r="F19" s="10">
-        <v>1246</v>
-      </c>
-      <c r="G19" s="10">
-        <v>1246</v>
-      </c>
-      <c r="H19" s="10">
-        <v>1246</v>
-      </c>
-      <c r="I19" s="10">
-        <v>1246</v>
-      </c>
-      <c r="J19" s="10">
-        <v>1246</v>
-      </c>
-      <c r="K19" s="10">
+      <c r="D19" s="9">
+        <v>1246</v>
+      </c>
+      <c r="E19" s="9">
+        <v>1246</v>
+      </c>
+      <c r="F19" s="9">
+        <v>1246</v>
+      </c>
+      <c r="G19" s="9">
+        <v>1246</v>
+      </c>
+      <c r="H19" s="9">
+        <v>1246</v>
+      </c>
+      <c r="I19" s="9">
+        <v>1246</v>
+      </c>
+      <c r="J19" s="9">
+        <v>1246</v>
+      </c>
+      <c r="K19" s="9">
         <f>SUM(Table1[[#This Row],[Jul-21]:[Jan-22]])</f>
         <v>8722</v>
       </c>
-      <c r="L19" s="10">
+      <c r="L19" s="9">
         <f>AVERAGE(Table1[[#This Row],[Jul-21]:[Jan-22]])</f>
         <v>1246</v>
       </c>
-      <c r="M19" s="10">
+      <c r="M19" s="9">
         <f>MIN(Table1[[#This Row],[Jul-21]:[Jan-22]])</f>
         <v>1246</v>
       </c>
-      <c r="N19" s="10">
+      <c r="N19" s="9">
         <f>MAX(Table1[[#This Row],[Jul-21]:[Jan-22]])</f>
         <v>1246</v>
       </c>
-      <c r="O19" s="13">
+      <c r="O19" s="12">
         <f>(Table1[[#This Row],[Jan-22]]/Table1[[#This Row],[Dec-21]])-1</f>
         <v>0</v>
       </c>
-      <c r="P19" s="10" t="str">
+      <c r="P19" s="9" t="str">
         <f>IF(Table1[[#This Row],[Total Revenue]]&gt;$I$25,"Above Revenue","Below Average")</f>
         <v>Below Average</v>
       </c>
@@ -2486,48 +2477,48 @@
         <f>VLOOKUP(Table1[[#This Row],[MOVIE]],Distributors!$A$2:$B$17,2,0)</f>
         <v>Walt Disney</v>
       </c>
-      <c r="D20" s="11">
-        <v>1246</v>
-      </c>
-      <c r="E20" s="11">
-        <v>1246</v>
-      </c>
-      <c r="F20" s="11">
-        <v>1246</v>
-      </c>
-      <c r="G20" s="11">
-        <v>1246</v>
-      </c>
-      <c r="H20" s="11">
-        <v>1246</v>
-      </c>
-      <c r="I20" s="11">
-        <v>1246</v>
-      </c>
-      <c r="J20" s="11">
-        <v>1246</v>
-      </c>
-      <c r="K20" s="10">
+      <c r="D20" s="10">
+        <v>1246</v>
+      </c>
+      <c r="E20" s="10">
+        <v>1246</v>
+      </c>
+      <c r="F20" s="10">
+        <v>1246</v>
+      </c>
+      <c r="G20" s="10">
+        <v>1246</v>
+      </c>
+      <c r="H20" s="10">
+        <v>1246</v>
+      </c>
+      <c r="I20" s="10">
+        <v>1246</v>
+      </c>
+      <c r="J20" s="10">
+        <v>1246</v>
+      </c>
+      <c r="K20" s="9">
         <f>SUM(Table1[[#This Row],[Jul-21]:[Jan-22]])</f>
         <v>8722</v>
       </c>
-      <c r="L20" s="10">
+      <c r="L20" s="9">
         <f>AVERAGE(Table1[[#This Row],[Jul-21]:[Jan-22]])</f>
         <v>1246</v>
       </c>
-      <c r="M20" s="10">
+      <c r="M20" s="9">
         <f>MIN(Table1[[#This Row],[Jul-21]:[Jan-22]])</f>
         <v>1246</v>
       </c>
-      <c r="N20" s="10">
+      <c r="N20" s="9">
         <f>MAX(Table1[[#This Row],[Jul-21]:[Jan-22]])</f>
         <v>1246</v>
       </c>
-      <c r="O20" s="13">
+      <c r="O20" s="12">
         <f>(Table1[[#This Row],[Jan-22]]/Table1[[#This Row],[Dec-21]])-1</f>
         <v>0</v>
       </c>
-      <c r="P20" s="10" t="str">
+      <c r="P20" s="9" t="str">
         <f>IF(Table1[[#This Row],[Total Revenue]]&gt;$I$25,"Above Revenue","Below Average")</f>
         <v>Below Average</v>
       </c>
@@ -2539,28 +2530,31 @@
       <c r="H23" s="5"/>
     </row>
     <row r="24" spans="1:16">
-      <c r="I24" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="J24" s="14"/>
-      <c r="N24" s="16">
+      <c r="I24" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="J24" s="16"/>
+      <c r="N24" s="13">
         <f>SUM(Table1[Total Revenue])</f>
         <v>15306092</v>
       </c>
-      <c r="O24" s="16">
+      <c r="O24" s="13">
         <f>AVERAGE(N24)</f>
         <v>15306092</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="28.8">
+      <c r="C25" s="6" t="s">
+        <v>45</v>
+      </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
-      <c r="I25" s="15">
+      <c r="I25" s="17">
         <f>AVERAGE(Table1[Total Revenue])</f>
         <v>956630.75</v>
       </c>
-      <c r="J25" s="15"/>
+      <c r="J25" s="17"/>
     </row>
     <row r="26" spans="1:16">
       <c r="F26" s="4"/>
@@ -2769,10 +2763,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
     </row>
